--- a/rider/weekly/2016_49.xlsx
+++ b/rider/weekly/2016_49.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>224</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>258.5</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231</c:v>
+                  <c:v>230.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.83</c:v>
+                  <c:v>198.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.2</c:v>
+                  <c:v>226.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>207.5</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.57</c:v>
+                  <c:v>125.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.14</c:v>
+                  <c:v>99.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D2">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="E2">
         <v>93.98999999999999</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>231</v>
+        <v>230.83</v>
       </c>
       <c r="E3">
         <v>94.15000000000001</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D4">
-        <v>206.83</v>
+        <v>198.33</v>
       </c>
       <c r="E4">
         <v>94.31</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5">
-        <v>227.2</v>
+        <v>226.4</v>
       </c>
       <c r="E5">
         <v>94.47</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>207.5</v>
+        <v>211</v>
       </c>
       <c r="E6">
         <v>94.63</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>126.57</v>
+        <v>125.57</v>
       </c>
       <c r="E7">
         <v>94.8</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8">
-        <v>102.14</v>
+        <v>99.86</v>
       </c>
       <c r="E8">
         <v>94.95999999999999</v>
